--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F8B4B-567F-485E-BBEC-9B493C669002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F590E2D-C2DB-4967-AA10-89DEE09B0D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1710,10 +1710,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13</t>
-  </si>
-  <si>
-    <t>S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S2f0912h01,S3j1228h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h01,S2f0912h24,S3j1228h23,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02</t>
+    <t>S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17</t>
+  </si>
+  <si>
+    <t>S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S2f0912h01,S3j1228h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h01,S2f0912h24,S3j1228h23,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02</v>
+        <v>S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13</v>
+        <v>S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2930,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2EC77F-C08D-4B80-A314-8D8DCF0985F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA044E-8A2A-4297-8C60-83FE96562DA1}">
   <dimension ref="B2:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4818,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A102C81-4315-4C65-8834-1A95520AA0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F28F0A-5CAC-4582-967B-936481975580}">
   <dimension ref="B2:O240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11066,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1035F066-313C-47F3-9210-9D251286B4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A38297-7C64-460D-BD2E-70886C09A863}">
   <dimension ref="B2:O477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F590E2D-C2DB-4967-AA10-89DEE09B0D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FDB51-685D-4DCD-9D26-EBFE38B0ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1710,10 +1710,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17</t>
-  </si>
-  <si>
-    <t>S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04</t>
+    <t>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12</t>
+  </si>
+  <si>
+    <t>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04</v>
+        <v>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17</v>
+        <v>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2930,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA044E-8A2A-4297-8C60-83FE96562DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD325C6-269C-4DAE-BA00-6FA4FF6E6422}">
   <dimension ref="B2:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4818,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F28F0A-5CAC-4582-967B-936481975580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7315F28-1E36-48C4-BB76-B007E9C4C6D9}">
   <dimension ref="B2:O240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4932,10 +4932,10 @@
         <v>552</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.59772867329870583</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O5" t="s">
         <v>563</v>
@@ -4967,10 +4967,10 @@
         <v>552</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380491</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O6" t="s">
         <v>563</v>
@@ -11066,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A38297-7C64-460D-BD2E-70886C09A863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F9F224-75D0-4CDD-8798-0DD3A6787DD6}">
   <dimension ref="B2:O477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FDB51-685D-4DCD-9D26-EBFE38B0ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA939C-BCD4-4E6F-BD33-6E8F776C9DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1710,10 +1710,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12</t>
-  </si>
-  <si>
-    <t>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24</t>
+    <t>S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10</t>
+  </si>
+  <si>
+    <t>S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S2d0825h01,S2f0912h24,S3j1228h23,S2f0912h01,S3j1228h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24</v>
+        <v>S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12</v>
+        <v>S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2930,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD325C6-269C-4DAE-BA00-6FA4FF6E6422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B218A785-EA01-44B4-90A1-7057E2862895}">
   <dimension ref="B2:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4818,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7315F28-1E36-48C4-BB76-B007E9C4C6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3595EA4-6C9B-4B30-AB64-D56F3AD4C1CC}">
   <dimension ref="B2:O240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11066,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F9F224-75D0-4CDD-8798-0DD3A6787DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74AF8A-4E88-4B43-99A9-BC40EA17E1F0}">
   <dimension ref="B2:O477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA939C-BCD4-4E6F-BD33-6E8F776C9DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E38263-47AD-46C6-BA21-99475C93F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1710,10 +1710,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10</t>
-  </si>
-  <si>
-    <t>S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22</t>
+    <t>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16</t>
+  </si>
+  <si>
+    <t>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22</v>
+        <v>S1aH5,S1b0130h01,S1b0130h05,S2aH5,S2d0825h04,S2d0825h21,S2f0912h19,S3h1129h24,S3i1225h01,S3i1225h24,S3j1228h03,S3j1228h22,S2d0825h06,S2e0908h06,S3h1129h19,S3j1228h02,S1aH6,S1b0130h04,S1b0130h19,S2c0717h01,S2c0717h19,S2d0825h24,S2e0908h04,S2e0908h22,S2f0912h03,S2f0912h06,S2f0912h22,S2g1013h01,S3h1129h02,S3h1129h20,S2f0912h01,S3j1228h04,S1b0130h02,S1b0130h06,S2aH6,S2e0908h20,S2e0908h24,S3aH1,S3aH5,S3i1225h02,S3i1225h04,S1b0130h20,S2c0717h06,S2d0825h03,S3i1225h06,S3j1228h05,S3j1228h19,S3j1228h20,S1b0130h03,S1b0130h24,S2c0717h23,S2d0825h23,S2e0908h03,S2e0908h05,S2f0912h04,S2f0912h23,S3h1129h05,S3i1225h03,S3i1225h05,S3i1225h22,S3j1228h06,S1aH7,S2c0717h02,S2c0717h21,S2d0825h02,S2d0825h19,S2f0912h05,S2g1013h02,S3aH6,S3j1228h24,S2d0825h01,S2f0912h24,S3j1228h23,S1b0130h22,S2aH1,S2c0717h04,S2d0825h22,S2g1013h04,S2g1013h20,S3aH7,S3h1129h23,S1aH1,S2aH7,S2c0717h03,S2c0717h20,S2e0908h01,S2f0912h02,S2g1013h05,S2g1013h23,S3i1225h19,S3j1228h21,S1b0130h23,S2c0717h05,S2c0717h24,S2d0825h20,S2f0912h20,S2g1013h06,S3h1129h04,S3i1225h20,S3i1225h23,S2d0825h05,S2e0908h21,S2f0912h21,S2g1013h21,S2g1013h22,S3h1129h03,S2e0908h02,S2g1013h24,S3h1129h01,S3h1129h22,S3j1228h01,S2c0717h22,S2e0908h19,S2e0908h23,S2g1013h19,S3h1129h06,S1b0130h21,S2g1013h03,S3h1129h21,S3i1225h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10</v>
+        <v>S1b0130h17,S2c0717h07,S2c0717h14,S2d0825h08,S2d0825h09,S2f0912h18,S3h1129h11,S3j1228h10,S2c0717h16,S2c0717h17,S2e0908h13,S2f0912h13,S3h1129h10,S3h1129h13,S1b0130h15,S2aH4,S2d0825h12,S2g1013h08,S3h1129h14,S3i1225h10,S3i1225h11,S3j1228h09,S1b0130h14,S1b0130h16,S2d0825h13,S2f0912h11,S2f0912h12,S3aH3,S3h1129h09,S3j1228h14,S3j1228h17,S1b0130h09,S2d0825h15,S2f0912h07,S2f0912h10,S2f0912h16,S3h1129h08,S3h1129h17,S3h1129h18,S3j1228h07,S3j1228h13,S1aH2,S1b0130h07,S2aH3,S2d0825h18,S2g1013h15,S3i1225h12,S1b0130h10,S2c0717h10,S2e0908h07,S2f0912h17,S3i1225h14,S1aH3,S2c0717h12,S2c0717h15,S2e0908h15,S3i1225h15,S3j1228h12,S1b0130h18,S2d0825h10,S2e0908h11,S3h1129h15,S3j1228h11,S2c0717h08,S2c0717h13,S2c0717h18,S2d0825h16,S2d0825h17,S2e0908h14,S2f0912h08,S2f0912h14,S2g1013h09,S3i1225h09,S3i1225h13,S3i1225h17,S1b0130h12,S1b0130h13,S2e0908h08,S2g1013h07,S2g1013h12,S2g1013h14,S3h1129h16,S3j1228h15,S3j1228h18,S1b0130h08,S2f0912h15,S2g1013h10,S2g1013h16,S2g1013h18,S3aH2,S3i1225h16,S2c0717h11,S2e0908h16,S2g1013h13,S2g1013h17,S3h1129h07,S3i1225h07,S3i1225h08,S3i1225h18,S1aH4,S2aH2,S2c0717h09,S2d0825h07,S2d0825h11,S2e0908h10,S2f0912h09,S1b0130h11,S2d0825h14,S2e0908h17,S3aH4,S3j1228h08,S2e0908h09,S2e0908h12,S2e0908h18,S2g1013h11,S3h1129h12,S3j1228h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2930,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B218A785-EA01-44B4-90A1-7057E2862895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD5CD81-F7B5-4E76-B07E-F6E26B81D0CD}">
   <dimension ref="B2:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4818,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3595EA4-6C9B-4B30-AB64-D56F3AD4C1CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446E0C5-5CBC-4E5D-9BB6-B4EC212060F9}">
   <dimension ref="B2:O240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4932,10 +4932,10 @@
         <v>552</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380491</v>
+        <v>0.59772867329870571</v>
       </c>
       <c r="O5" t="s">
         <v>563</v>
@@ -4967,10 +4967,10 @@
         <v>552</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.59772867329870583</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O6" t="s">
         <v>563</v>
@@ -11066,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74AF8A-4E88-4B43-99A9-BC40EA17E1F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B4A938-B05F-4739-B152-77DD3F97AAE1}">
   <dimension ref="B2:O477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
